--- a/test_y_semanal.xlsx
+++ b/test_y_semanal.xlsx
@@ -453,34 +453,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725</v>
+        <v>45760</v>
       </c>
       <c r="B2" t="n">
-        <v>11.96</v>
+        <v>2.771428571428572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45732</v>
+        <v>45767</v>
       </c>
       <c r="B3" t="n">
-        <v>6.114285714285714</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45739</v>
+        <v>45774</v>
       </c>
       <c r="B4" t="n">
-        <v>11.71428571428571</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45746</v>
+        <v>45781</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6857142857142857</v>
+        <v>6.471428571428571</v>
       </c>
     </row>
   </sheetData>
